--- a/Feb'2021/06.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/06.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2275,6 +2275,72 @@
     <xf numFmtId="2" fontId="5" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="19" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2285,63 +2351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2442,15 +2451,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2858,67 +2858,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="234"/>
     </row>
     <row r="3" spans="1:24" s="98" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="246"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="245"/>
       <c r="S3" s="99"/>
       <c r="T3" s="100"/>
       <c r="U3" s="100"/>
@@ -2927,52 +2927,52 @@
       <c r="X3" s="101"/>
     </row>
     <row r="4" spans="1:24" s="101" customFormat="1">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="D4" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="234" t="s">
+      <c r="E4" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="234" t="s">
+      <c r="G4" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="234" t="s">
+      <c r="H4" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="234" t="s">
+      <c r="J4" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="247" t="s">
+      <c r="K4" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="249" t="s">
+      <c r="L4" s="248" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="251" t="s">
+      <c r="M4" s="250" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="230" t="s">
+      <c r="N4" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="232" t="s">
+      <c r="O4" s="254" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="242" t="s">
+      <c r="P4" s="241" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="206" t="s">
@@ -2985,22 +2985,22 @@
       <c r="W4" s="100"/>
     </row>
     <row r="5" spans="1:24" s="101" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="239"/>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="235"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="233"/>
-      <c r="P5" s="243"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="240"/>
+      <c r="J5" s="240"/>
+      <c r="K5" s="247"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="251"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="255"/>
+      <c r="P5" s="242"/>
       <c r="Q5" s="207" t="s">
         <v>36</v>
       </c>
@@ -5840,6 +5840,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -5856,9 +5859,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5885,12 +5885,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="256" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="255"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="258"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -5905,12 +5905,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -6100,7 +6100,7 @@
       <c r="B9" s="59">
         <v>175000</v>
       </c>
-      <c r="C9" s="288">
+      <c r="C9" s="232">
         <v>0</v>
       </c>
       <c r="D9" s="46">
@@ -6127,10 +6127,10 @@
       <c r="A10" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="286">
+      <c r="B10" s="230">
         <v>0</v>
       </c>
-      <c r="C10" s="287">
+      <c r="C10" s="231">
         <v>0</v>
       </c>
       <c r="D10" s="46">
@@ -7825,8 +7825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7837,28 +7837,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="260" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="257"/>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
+      <c r="A2" s="260"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="260"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="261" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="259"/>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
+      <c r="A4" s="262"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="136" t="s">
@@ -8143,25 +8143,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="265"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="268"/>
       <c r="G1" s="22"/>
       <c r="H1" s="138"/>
       <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="269" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="268"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="271"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
@@ -8186,11 +8186,11 @@
       <c r="D4" s="19"/>
       <c r="E4" s="84"/>
       <c r="F4" s="29"/>
-      <c r="J4" s="269" t="s">
+      <c r="J4" s="272" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="270"/>
-      <c r="L4" s="271"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="274"/>
     </row>
     <row r="5" spans="1:12" ht="22.5">
       <c r="A5" s="85" t="s">
@@ -8463,11 +8463,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="260"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="262"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="265"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:9">
@@ -8606,108 +8606,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="275"/>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
+      <c r="A2" s="278"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
     </row>
     <row r="3" spans="1:17" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="276"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="276"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="276"/>
-      <c r="K3" s="276"/>
-      <c r="L3" s="276"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="276"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="276"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
     </row>
     <row r="4" spans="1:17" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="277"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="277"/>
-      <c r="K4" s="277"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="277"/>
-      <c r="N4" s="277"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="277"/>
-      <c r="Q4" s="277"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="280"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="280"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="280"/>
+      <c r="L4" s="280"/>
+      <c r="M4" s="280"/>
+      <c r="N4" s="280"/>
+      <c r="O4" s="280"/>
+      <c r="P4" s="280"/>
+      <c r="Q4" s="280"/>
     </row>
     <row r="5" spans="1:17" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="278" t="s">
+      <c r="A5" s="281" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="279"/>
-      <c r="C5" s="278" t="s">
+      <c r="B5" s="282"/>
+      <c r="C5" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="279"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="283"/>
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="283"/>
+      <c r="L5" s="283"/>
+      <c r="M5" s="283"/>
+      <c r="N5" s="283"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="282"/>
       <c r="Q5" s="141"/>
     </row>
     <row r="6" spans="1:17" s="121" customFormat="1" ht="18" customHeight="1">
@@ -9289,11 +9289,11 @@
       <c r="Q27" s="184"/>
     </row>
     <row r="28" spans="1:17" s="130" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="272" t="s">
+      <c r="A28" s="275" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="273"/>
-      <c r="C28" s="274"/>
+      <c r="B28" s="276"/>
+      <c r="C28" s="277"/>
       <c r="D28" s="149">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -10026,12 +10026,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1">
-      <c r="B1" s="281" t="s">
+      <c r="B1" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="283"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="286"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="151" t="s">
@@ -10400,7 +10400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
@@ -10426,111 +10426,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="275"/>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
+      <c r="A2" s="278"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
     </row>
     <row r="3" spans="1:18" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="276"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="276"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="276"/>
-      <c r="K3" s="276"/>
-      <c r="L3" s="276"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="276"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="276"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
     </row>
     <row r="4" spans="1:18" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="277"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="277"/>
-      <c r="K4" s="277"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="277"/>
-      <c r="N4" s="277"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="277"/>
-      <c r="Q4" s="277"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="280"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="280"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="280"/>
+      <c r="L4" s="280"/>
+      <c r="M4" s="280"/>
+      <c r="N4" s="280"/>
+      <c r="O4" s="280"/>
+      <c r="P4" s="280"/>
+      <c r="Q4" s="280"/>
     </row>
     <row r="5" spans="1:18" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="284" t="s">
+      <c r="A5" s="287" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="285"/>
+      <c r="B5" s="288"/>
       <c r="C5" s="185"/>
       <c r="D5" s="186" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="186"/>
-      <c r="F5" s="280" t="s">
+      <c r="F5" s="283" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="280"/>
-      <c r="Q5" s="279"/>
+      <c r="G5" s="283"/>
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="283"/>
+      <c r="L5" s="283"/>
+      <c r="M5" s="283"/>
+      <c r="N5" s="283"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="283"/>
+      <c r="Q5" s="282"/>
     </row>
     <row r="6" spans="1:18" s="121" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="142" t="s">
@@ -11141,11 +11141,11 @@
       <c r="Q27" s="194"/>
     </row>
     <row r="28" spans="1:17" s="130" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="272" t="s">
+      <c r="A28" s="275" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="273"/>
-      <c r="C28" s="274"/>
+      <c r="B28" s="276"/>
+      <c r="C28" s="277"/>
       <c r="D28" s="149">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
